--- a/test_1.xlsx
+++ b/test_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18360" activeTab="2"/>
+    <workbookView windowHeight="18360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,15 +29,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>q</t>
   </si>
   <si>
     <t>qwe</t>
-  </si>
-  <si>
-    <t>eqweqweqw</t>
   </si>
   <si>
     <t>eqe</t>
@@ -1004,7 +1001,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1020,58 +1017,58 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1111</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="4:4">
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1084,27 +1081,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>21212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>1212121</v>
       </c>
     </row>
   </sheetData>
@@ -1119,7 +1126,7 @@
   <sheetPr/>
   <dimension ref="B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1127,7 +1134,7 @@
   <sheetData>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
